--- a/Resources/excelFiles/sheet35.xlsx
+++ b/Resources/excelFiles/sheet35.xlsx
@@ -439,19 +439,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="2" width="9.375"/>
     <col min="4" max="4" width="11.125"/>
+    <col min="6" max="6" width="9.375"/>
+    <col min="8" max="8" width="11.125"/>
+    <col min="10" max="10" width="9.375"/>
+    <col min="12" max="12" width="11.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +468,32 @@
       <c r="D1" s="1">
         <v>498723.45</v>
       </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>498723.45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <v>498723.45</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>3</v>
       </c>
@@ -478,8 +506,32 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -490,6 +542,30 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>98654321</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>98654321</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Resources/excelFiles/sheet35.xlsx
+++ b/Resources/excelFiles/sheet35.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28220" windowHeight="13020"/>
+    <workbookView windowWidth="28220" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="abc" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>:asdfghjkl</t>
   </si>
@@ -31,6 +31,18 @@
   </si>
   <si>
     <t>*(&amp;%$$%^@$%</t>
+  </si>
+  <si>
+    <t>asd;fkjasd;flkj</t>
+  </si>
+  <si>
+    <t>a;lksdjfa;sldkjfa;lsdkfj</t>
+  </si>
+  <si>
+    <t>a;lskdajfa;lksdjfa;lkdjf</t>
+  </si>
+  <si>
+    <t>a;sldkjfa;ldkfj</t>
   </si>
 </sst>
 </file>
@@ -441,8 +453,8 @@
   <sheetPr/>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2"/>
@@ -579,14 +591,37 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
